--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Ren1</t>
   </si>
   <si>
     <t>Atp6ap2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2848996666666667</v>
+        <v>0.7878586666666667</v>
       </c>
       <c r="H2">
-        <v>0.854699</v>
+        <v>2.363576</v>
       </c>
       <c r="I2">
-        <v>0.3432301419625944</v>
+        <v>0.5791854760097254</v>
       </c>
       <c r="J2">
-        <v>0.3432301419625944</v>
+        <v>0.5791854760097255</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.857169666666667</v>
+        <v>8.338626666666668</v>
       </c>
       <c r="N2">
-        <v>23.571509</v>
+        <v>25.01588</v>
       </c>
       <c r="O2">
-        <v>0.08295660471154059</v>
+        <v>0.08898508987480278</v>
       </c>
       <c r="P2">
-        <v>0.08295660471154058</v>
+        <v>0.08898508987480276</v>
       </c>
       <c r="Q2">
-        <v>2.238505018976778</v>
+        <v>6.569659287431112</v>
       </c>
       <c r="R2">
-        <v>20.146545170791</v>
+        <v>59.12693358688001</v>
       </c>
       <c r="S2">
-        <v>0.02847320721187691</v>
+        <v>0.05153887163690584</v>
       </c>
       <c r="T2">
-        <v>0.02847320721187691</v>
+        <v>0.05153887163690584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2848996666666667</v>
+        <v>0.7878586666666667</v>
       </c>
       <c r="H3">
-        <v>0.854699</v>
+        <v>2.363576</v>
       </c>
       <c r="I3">
-        <v>0.3432301419625944</v>
+        <v>0.5791854760097254</v>
       </c>
       <c r="J3">
-        <v>0.3432301419625944</v>
+        <v>0.5791854760097255</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>72.992177</v>
       </c>
       <c r="O3">
-        <v>0.2568856823898633</v>
+        <v>0.2596436915472296</v>
       </c>
       <c r="P3">
-        <v>0.2568856823898633</v>
+        <v>0.2596436915472296</v>
       </c>
       <c r="Q3">
-        <v>6.931815632191444</v>
+        <v>19.16917308277245</v>
       </c>
       <c r="R3">
-        <v>62.386340689723</v>
+        <v>172.522557744952</v>
       </c>
       <c r="S3">
-        <v>0.08817090923483072</v>
+        <v>0.1503818550817045</v>
       </c>
       <c r="T3">
-        <v>0.08817090923483073</v>
+        <v>0.1503818550817045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2848996666666667</v>
+        <v>0.7878586666666667</v>
       </c>
       <c r="H4">
-        <v>0.854699</v>
+        <v>2.363576</v>
       </c>
       <c r="I4">
-        <v>0.3432301419625944</v>
+        <v>0.5791854760097254</v>
       </c>
       <c r="J4">
-        <v>0.3432301419625944</v>
+        <v>0.5791854760097255</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.808643333333332</v>
+        <v>12.56733566666667</v>
       </c>
       <c r="N4">
-        <v>26.42593</v>
+        <v>37.702007</v>
       </c>
       <c r="O4">
-        <v>0.09300233723453351</v>
+        <v>0.1341114716474273</v>
       </c>
       <c r="P4">
-        <v>0.09300233723453349</v>
+        <v>0.1341114716474273</v>
       </c>
       <c r="Q4">
-        <v>2.509579549452222</v>
+        <v>9.901284321892446</v>
       </c>
       <c r="R4">
-        <v>22.58621594507</v>
+        <v>89.11155889703201</v>
       </c>
       <c r="S4">
-        <v>0.03192120541186201</v>
+        <v>0.07767541654447994</v>
       </c>
       <c r="T4">
-        <v>0.03192120541186201</v>
+        <v>0.07767541654447996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2848996666666667</v>
+        <v>0.7878586666666667</v>
       </c>
       <c r="H5">
-        <v>0.854699</v>
+        <v>2.363576</v>
       </c>
       <c r="I5">
-        <v>0.3432301419625944</v>
+        <v>0.5791854760097254</v>
       </c>
       <c r="J5">
-        <v>0.3432301419625944</v>
+        <v>0.5791854760097255</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.717676</v>
+        <v>48.47144533333333</v>
       </c>
       <c r="N5">
-        <v>161.153028</v>
+        <v>145.414336</v>
       </c>
       <c r="O5">
-        <v>0.5671553756640627</v>
+        <v>0.5172597469305403</v>
       </c>
       <c r="P5">
-        <v>0.5671553756640626</v>
+        <v>0.5172597469305402</v>
       </c>
       <c r="Q5">
-        <v>15.304147986508</v>
+        <v>38.18864829172622</v>
       </c>
       <c r="R5">
-        <v>137.737331878572</v>
+        <v>343.697834625536</v>
       </c>
       <c r="S5">
-        <v>0.1946648201040248</v>
+        <v>0.2995893327466351</v>
       </c>
       <c r="T5">
-        <v>0.1946648201040248</v>
+        <v>0.2995893327466351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.635464</v>
       </c>
       <c r="I6">
-        <v>0.6567698580374056</v>
+        <v>0.4007643483166056</v>
       </c>
       <c r="J6">
-        <v>0.6567698580374056</v>
+        <v>0.4007643483166057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.857169666666667</v>
+        <v>8.338626666666668</v>
       </c>
       <c r="N6">
-        <v>23.571509</v>
+        <v>25.01588</v>
       </c>
       <c r="O6">
-        <v>0.08295660471154059</v>
+        <v>0.08898508987480278</v>
       </c>
       <c r="P6">
-        <v>0.08295660471154058</v>
+        <v>0.08898508987480276</v>
       </c>
       <c r="Q6">
-        <v>4.283372710575112</v>
+        <v>4.545841240924445</v>
       </c>
       <c r="R6">
-        <v>38.550354395176</v>
+        <v>40.91257116832001</v>
       </c>
       <c r="S6">
-        <v>0.05448339749966369</v>
+        <v>0.03566205155356991</v>
       </c>
       <c r="T6">
-        <v>0.05448339749966368</v>
+        <v>0.03566205155356991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.635464</v>
       </c>
       <c r="I7">
-        <v>0.6567698580374056</v>
+        <v>0.4007643483166056</v>
       </c>
       <c r="J7">
-        <v>0.6567698580374056</v>
+        <v>0.4007643483166057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>72.992177</v>
       </c>
       <c r="O7">
-        <v>0.2568856823898633</v>
+        <v>0.2596436915472296</v>
       </c>
       <c r="P7">
-        <v>0.2568856823898633</v>
+        <v>0.2596436915472296</v>
       </c>
       <c r="Q7">
         <v>13.26400864056978</v>
@@ -883,10 +883,10 @@
         <v>119.376077765128</v>
       </c>
       <c r="S7">
-        <v>0.1687147731550326</v>
+        <v>0.1040559348374432</v>
       </c>
       <c r="T7">
-        <v>0.1687147731550326</v>
+        <v>0.1040559348374433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,10 +915,10 @@
         <v>1.635464</v>
       </c>
       <c r="I8">
-        <v>0.6567698580374056</v>
+        <v>0.4007643483166056</v>
       </c>
       <c r="J8">
-        <v>0.6567698580374056</v>
+        <v>0.4007643483166057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.808643333333332</v>
+        <v>12.56733566666667</v>
       </c>
       <c r="N8">
-        <v>26.42593</v>
+        <v>37.702007</v>
       </c>
       <c r="O8">
-        <v>0.09300233723453351</v>
+        <v>0.1341114716474273</v>
       </c>
       <c r="P8">
-        <v>0.09300233723453349</v>
+        <v>0.1341114716474273</v>
       </c>
       <c r="Q8">
-        <v>4.802073020168889</v>
+        <v>6.851141686249778</v>
       </c>
       <c r="R8">
-        <v>43.21865718151999</v>
+        <v>61.66027517624801</v>
       </c>
       <c r="S8">
-        <v>0.0610811318226715</v>
+        <v>0.05374709653656212</v>
       </c>
       <c r="T8">
-        <v>0.06108113182267148</v>
+        <v>0.05374709653656212</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -977,10 +977,10 @@
         <v>1.635464</v>
       </c>
       <c r="I9">
-        <v>0.6567698580374056</v>
+        <v>0.4007643483166056</v>
       </c>
       <c r="J9">
-        <v>0.6567698580374056</v>
+        <v>0.4007643483166057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.717676</v>
+        <v>48.47144533333333</v>
       </c>
       <c r="N9">
-        <v>161.153028</v>
+        <v>145.414336</v>
       </c>
       <c r="O9">
-        <v>0.5671553756640627</v>
+        <v>0.5172597469305403</v>
       </c>
       <c r="P9">
-        <v>0.5671553756640626</v>
+        <v>0.5172597469305402</v>
       </c>
       <c r="Q9">
-        <v>29.284441753888</v>
+        <v>26.42443462354489</v>
       </c>
       <c r="R9">
-        <v>263.559975784992</v>
+        <v>237.819911611904</v>
       </c>
       <c r="S9">
-        <v>0.3724905555600379</v>
+        <v>0.2072992653890303</v>
       </c>
       <c r="T9">
-        <v>0.3724905555600379</v>
+        <v>0.2072992653890303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.027274</v>
+      </c>
+      <c r="H10">
+        <v>0.08182200000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.02005017567366895</v>
+      </c>
+      <c r="J10">
+        <v>0.02005017567366895</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.338626666666668</v>
+      </c>
+      <c r="N10">
+        <v>25.01588</v>
+      </c>
+      <c r="O10">
+        <v>0.08898508987480278</v>
+      </c>
+      <c r="P10">
+        <v>0.08898508987480276</v>
+      </c>
+      <c r="Q10">
+        <v>0.2274277037066667</v>
+      </c>
+      <c r="R10">
+        <v>2.04684933336</v>
+      </c>
+      <c r="S10">
+        <v>0.001784166684327015</v>
+      </c>
+      <c r="T10">
+        <v>0.001784166684327015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.027274</v>
+      </c>
+      <c r="H11">
+        <v>0.08182200000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.02005017567366895</v>
+      </c>
+      <c r="J11">
+        <v>0.02005017567366895</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.33072566666667</v>
+      </c>
+      <c r="N11">
+        <v>72.992177</v>
+      </c>
+      <c r="O11">
+        <v>0.2596436915472296</v>
+      </c>
+      <c r="P11">
+        <v>0.2596436915472296</v>
+      </c>
+      <c r="Q11">
+        <v>0.6635962118326667</v>
+      </c>
+      <c r="R11">
+        <v>5.972365906494001</v>
+      </c>
+      <c r="S11">
+        <v>0.005205901628081867</v>
+      </c>
+      <c r="T11">
+        <v>0.005205901628081867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.027274</v>
+      </c>
+      <c r="H12">
+        <v>0.08182200000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.02005017567366895</v>
+      </c>
+      <c r="J12">
+        <v>0.02005017567366895</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.56733566666667</v>
+      </c>
+      <c r="N12">
+        <v>37.702007</v>
+      </c>
+      <c r="O12">
+        <v>0.1341114716474273</v>
+      </c>
+      <c r="P12">
+        <v>0.1341114716474273</v>
+      </c>
+      <c r="Q12">
+        <v>0.3427615129726667</v>
+      </c>
+      <c r="R12">
+        <v>3.084853616754</v>
+      </c>
+      <c r="S12">
+        <v>0.002688958566385189</v>
+      </c>
+      <c r="T12">
+        <v>0.002688958566385189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.027274</v>
+      </c>
+      <c r="H13">
+        <v>0.08182200000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.02005017567366895</v>
+      </c>
+      <c r="J13">
+        <v>0.02005017567366895</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>48.47144533333333</v>
+      </c>
+      <c r="N13">
+        <v>145.414336</v>
+      </c>
+      <c r="O13">
+        <v>0.5172597469305403</v>
+      </c>
+      <c r="P13">
+        <v>0.5172597469305402</v>
+      </c>
+      <c r="Q13">
+        <v>1.322010200021333</v>
+      </c>
+      <c r="R13">
+        <v>11.898091800192</v>
+      </c>
+      <c r="S13">
+        <v>0.01037114879487488</v>
+      </c>
+      <c r="T13">
+        <v>0.01037114879487487</v>
       </c>
     </row>
   </sheetData>
